--- a/Naseeb/DFT Anode materials Parameters fro pybamm.xlsx
+++ b/Naseeb/DFT Anode materials Parameters fro pybamm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMYLS\Downloads\Physics 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112BE1C-6613-449E-8321-3761401AE2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3402D53A-03BD-499F-8017-A561D2185429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9FBE4A17-E67B-4DD9-9E73-A9EB4229AD63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Parameters Needed for Anode Material Simulation in Pybamm </t>
   </si>
@@ -40,9 +40,6 @@
     <t>PG/P-BN2</t>
   </si>
   <si>
-    <t>Voltage (V) (OCV)</t>
-  </si>
-  <si>
     <t>Number of Li atoms (Stoichometery)</t>
   </si>
   <si>
@@ -61,15 +58,6 @@
     <t>OCV range Li(V)</t>
   </si>
   <si>
-    <t>0.09 , 1.39</t>
-  </si>
-  <si>
-    <t>0.21 , 1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 , 1.2 </t>
-  </si>
-  <si>
     <t>Paper link</t>
   </si>
   <si>
@@ -85,7 +73,82 @@
     <t>https://doi.org/10.1016/j.jallcom.2021.163538</t>
   </si>
   <si>
-    <t>0.69 ,0.85</t>
+    <t>0.69,0.85</t>
+  </si>
+  <si>
+    <t>[3,4,7,8,11,12,15,16,19,20,23]</t>
+  </si>
+  <si>
+    <t>[1.4,0.7,0.7,0.3,0.3,0.2,0.2,0.1,0.1,0.05,0.05]</t>
+  </si>
+  <si>
+    <t>OCV(V)</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>[0.85,0.82,0.74,0.71,0.7,0.69]</t>
+  </si>
+  <si>
+    <t>0.21,1.30</t>
+  </si>
+  <si>
+    <t>0.09,1.39</t>
+  </si>
+  <si>
+    <t>TiC3(LixTiC9)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.apsusc.2023.158024</t>
+  </si>
+  <si>
+    <t>[2.5,1.8,1.5,1.3,1.1,0.9]</t>
+  </si>
+  <si>
+    <t>LixBSi</t>
+  </si>
+  <si>
+    <t>[1.94,1.72,1.52,1.11,1.11,1.31,1.31]</t>
+  </si>
+  <si>
+    <t>[0,1,2,4,6,7,8]</t>
+  </si>
+  <si>
+    <t>0.9,2.5</t>
+  </si>
+  <si>
+    <t>1.11,1.94</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.apsusc.2021.150278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5,2.5 </t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4]</t>
+  </si>
+  <si>
+    <t>[2.5,1.9,1.6,1.2,0.5]</t>
+  </si>
+  <si>
+    <t>SiC</t>
+  </si>
+  <si>
+    <t>[0.9,0.8,0.7,0.6,0.5,0.4,0.3,0.2]</t>
+  </si>
+  <si>
+    <t>[0,8,16,24,32,40,48,56]</t>
+  </si>
+  <si>
+    <t>[0,0.2,0.4,0.6,0.8,1]</t>
+  </si>
+  <si>
+    <t>0.2,0.9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jsamd.2025.100946</t>
   </si>
 </sst>
 </file>
@@ -648,7 +711,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -665,6 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F2C2D5-83BF-4B9A-81E8-4AE35AE5F13C}">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,11 +1119,13 @@
     <col min="4" max="4" width="27.36328125" customWidth="1"/>
     <col min="5" max="6" width="18.81640625" customWidth="1"/>
     <col min="7" max="7" width="38.6328125" customWidth="1"/>
-    <col min="8" max="8" width="27.08984375" customWidth="1"/>
-    <col min="9" max="17" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="35.6328125" customWidth="1"/>
+    <col min="9" max="9" width="38.6328125" customWidth="1"/>
+    <col min="10" max="10" width="27.08984375" customWidth="1"/>
+    <col min="11" max="19" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,8 +1141,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -1088,41 +1154,47 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-    </row>
-    <row r="2" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -1130,8 +1202,10 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1148,150 +1222,114 @@
         <v>0.42</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>4</v>
-      </c>
-      <c r="K3" s="5">
-        <v>7</v>
-      </c>
-      <c r="L3" s="5">
-        <v>8</v>
-      </c>
-      <c r="M3" s="5">
-        <v>11</v>
-      </c>
-      <c r="N3" s="5">
-        <v>12</v>
-      </c>
-      <c r="O3" s="5">
-        <v>15</v>
-      </c>
-      <c r="P3" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="5">
-        <v>20</v>
-      </c>
-      <c r="S3" s="5">
-        <v>23</v>
-      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>588.16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.5E-10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="4"/>
+    </row>
+    <row r="5" spans="1:28" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>588.16</v>
+        <v>771</v>
       </c>
       <c r="C5" s="5">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="10">
-        <v>1.5E-10</v>
+        <v>1.1000000000000001E-6</v>
       </c>
       <c r="E5" s="5">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>6</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1303,37 +1341,43 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.69</v>
-      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1054.3499999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1345,32 +1389,38 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
-        <v>771</v>
+        <v>1916</v>
       </c>
       <c r="C7" s="5">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="10">
-        <v>1.1000000000000001E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E7" s="5">
-        <v>0.65</v>
+        <v>1.52</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1387,18 +1437,38 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1374</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3.9500000000000001E-17</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1415,32 +1485,38 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
-        <v>1054.3499999999999</v>
+        <v>1231.98</v>
       </c>
       <c r="C9" s="5">
-        <v>0.02</v>
+        <v>0.48</v>
       </c>
       <c r="D9" s="10">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E9" s="5">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1457,9 +1533,11 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1485,9 +1563,11 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1513,9 +1593,11 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1541,9 +1623,11 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1569,9 +1653,11 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1597,93 +1683,101 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1710,8 +1804,10 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1738,8 +1834,10 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1766,8 +1864,10 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1794,8 +1894,10 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1822,8 +1924,10 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1850,8 +1954,10 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1865,21 +1971,9 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1894,20 +1988,8 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1922,20 +2004,8 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1947,9 +2017,11 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1962,8 +2034,10 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1976,8 +2050,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1990,8 +2066,10 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2004,8 +2082,10 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2018,8 +2098,10 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2032,8 +2114,10 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2046,8 +2130,10 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2060,8 +2146,10 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2074,8 +2162,10 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2088,8 +2178,10 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2102,8 +2194,10 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2116,8 +2210,10 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2130,8 +2226,10 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2144,57 +2242,20 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{428C3FE9-C297-4586-BEC5-871C8C8E6EC8}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{FE77229C-34B4-4311-AF6F-61BD8BA5C41D}"/>
-    <hyperlink ref="G9" r:id="rId3" xr:uid="{7B48EB98-B98B-496E-A36F-60D59D211746}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{2B075FCA-FE40-43F7-8386-D987ABF13098}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{FE77229C-34B4-4311-AF6F-61BD8BA5C41D}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{7B48EB98-B98B-496E-A36F-60D59D211746}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{2B075FCA-FE40-43F7-8386-D987ABF13098}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{7FA7E035-D219-45CA-AB0A-E58F536E6EC2}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{2D0B06CE-2338-4B3C-A246-A764CA8DBC67}"/>
+    <hyperlink ref="G9" r:id="rId7" tooltip="Persistent link using digital object identifier" xr:uid="{6002DEB2-DB6D-4FC6-A971-CF5FBC011759}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>